--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBF40D1-C3C2-4777-8A61-918C9C391081}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561979C7-0836-42FE-B28F-938B2267B85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="3" r:id="rId2"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -49,9 +50,6 @@
     <t>B_STYLE</t>
   </si>
   <si>
-    <t>Colore:</t>
-  </si>
-  <si>
     <t>Colori:</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
     <t>Fill Type:</t>
   </si>
   <si>
-    <t>BRICK</t>
-  </si>
-  <si>
     <t>FillType:</t>
   </si>
   <si>
@@ -101,6 +96,36 @@
   </si>
   <si>
     <t>FINE_DOTS</t>
+  </si>
+  <si>
+    <t>BRICKS</t>
+  </si>
+  <si>
+    <t>Qua sotto si può trovare la legenda dei valori che si possono inserire nel foglio "Settings".</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>In questo foglio è posssibile creare nuovi stili per il foglio. Lo stile si può nominare a piacere, mentre i valori possibili devono essere assolutamente rientrare in quelli previsti dal foglio delle Legenda.</t>
+  </si>
+  <si>
+    <t>Se un valore non è stato scritto in maniera corretta, o se mancherà, verrà impostato automaticamente al valore di default.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TURQUOISE</t>
+  </si>
+  <si>
+    <t>LIGHT_TURQUOISE</t>
+  </si>
+  <si>
+    <t>Color:</t>
   </si>
   <si>
     <t/>
@@ -123,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,20 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="11">
@@ -218,12 +254,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor indexed="10"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -411,7 +447,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -419,12 +454,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,108 +780,112 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="J5" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="J5" s="26"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="J6" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="J7" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="J7" s="26"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="24"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="J8" s="26"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9">
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="J9" s="26"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10">
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" ht="15.0" customHeight="true"/>
     <row r="12" ht="15.0" customHeight="true"/>
     <row r="13" ht="15.0" customHeight="true"/>
     <row r="14" ht="15.0" customHeight="true"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D15" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>14</v>
+      <c r="D15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>14</v>
+      <c r="D16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true"/>
-    <row r="18" ht="15.0" customHeight="true"/>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="D18" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="19" ht="15.0" customHeight="true"/>
     <row r="20" ht="15.0" customHeight="true"/>
   </sheetData>
@@ -855,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,105 +908,162 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="17"/>
-      <c r="I6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="L7" t="s">
-        <v>21</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561979C7-0836-42FE-B28F-938B2267B85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00858FF4-2FDB-4857-8FA1-A27C7B281E9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Settings" sheetId="3" r:id="rId2"/>
-    <sheet name="Legenda" sheetId="4" r:id="rId3"/>
+    <sheet name="FUN" sheetId="5" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -113,12 +114,6 @@
     <t>Se un valore non è stato scritto in maniera corretta, o se mancherà, verrà impostato automaticamente al valore di default.</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>TURQUOISE</t>
   </si>
   <si>
@@ -128,19 +123,22 @@
     <t>Color:</t>
   </si>
   <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>Inserire le FUN necessarie in qualsiasi punto del foglio.</t>
+  </si>
+  <si>
+    <t>Scrivere possibilmente ciascuna FUN sulla stessa riga.</t>
+  </si>
+  <si>
+    <t>F(TIPO; PARAMETRO; OGGETTO)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>Iterazione numero 0</t>
-  </si>
-  <si>
-    <t>Iterazione numero 1</t>
-  </si>
-  <si>
-    <t>Iterazione numero 2</t>
-  </si>
-  <si>
-    <t>Iterazione numero 3</t>
   </si>
 </sst>
 </file>
@@ -148,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +202,128 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +380,16 @@
         <fgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -277,21 +405,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,30 +431,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.34998626667073579"/>
@@ -389,15 +478,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -422,6 +502,56 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -431,24 +561,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -456,13 +582,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,114 +935,129 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="J5" s="27"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="J7" s="27"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="J8" s="27"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="26"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="J9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="J9" s="27"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="26"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10">
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" ht="15.0" customHeight="true"/>
     <row r="12" ht="15.0" customHeight="true"/>
     <row r="13" ht="15.0" customHeight="true"/>
     <row r="14" ht="15.0" customHeight="true"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>13</v>
       </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="true"/>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D18" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="true"/>
-    <row r="20" ht="15.0" customHeight="true"/>
+      <c r="E16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -896,11 +1066,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +1115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -925,20 +1131,20 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -948,7 +1154,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
@@ -956,7 +1162,7 @@
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -972,7 +1178,9 @@
       <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -980,28 +1188,28 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1011,59 +1219,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="D8" t="s">
+      <c r="B8" s="13"/>
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="D9" t="s">
+      <c r="B9" s="14"/>
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="D10" t="s">
+      <c r="B10" s="15"/>
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="D11" t="s">
+      <c r="B11" s="16"/>
+      <c r="D11" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
+      <c r="A12" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00858FF4-2FDB-4857-8FA1-A27C7B281E9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF59FD9D-E5D1-4BBF-9E9F-F6D20A7BACC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -135,10 +135,31 @@
     <t>F(TIPO; PARAMETRO; OGGETTO)</t>
   </si>
   <si>
+    <t>U_STYLE</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>Iterazione numero 0</t>
+  </si>
+  <si>
+    <t>Iterazione numero 1</t>
+  </si>
+  <si>
+    <t>Iterazione numero 2</t>
+  </si>
+  <si>
+    <t>Iterazione numero 3</t>
+  </si>
+  <si>
+    <t>Iterazione numero 4</t>
+  </si>
+  <si>
+    <t>Iterazione numero 5</t>
   </si>
 </sst>
 </file>
@@ -146,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,136 +213,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -466,17 +357,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -557,11 +437,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -572,9 +461,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -582,42 +470,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,38 +788,32 @@
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15.0" customHeight="true" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D3" s="0" t="s">
+    <row r="3" ht="15.0" customHeight="true"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="D4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="J5" s="27"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -967,6 +824,9 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -977,6 +837,9 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -987,6 +850,9 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -997,6 +863,9 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -1014,49 +883,49 @@
       <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17">
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18">
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19">
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20">
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1076,7 +945,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1103,34 +972,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1144,11 +1014,12 @@
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1156,15 +1027,14 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1172,23 +1042,29 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,7 +1085,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1219,58 +1095,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="12"/>
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="13"/>
+      <c r="D9" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="14"/>
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="15"/>
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
     </row>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF59FD9D-E5D1-4BBF-9E9F-F6D20A7BACC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AA4D8-7783-43BD-B936-C08BD784BB27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
     <sheet name="Legenda" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -135,10 +141,7 @@
     <t>F(TIPO; PARAMETRO; OGGETTO)</t>
   </si>
   <si>
-    <t>U_STYLE</t>
-  </si>
-  <si>
-    <t>BLACK</t>
+    <t>a</t>
   </si>
   <si>
     <t/>
@@ -214,7 +217,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,13 +226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893" rgb="70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" rgb="ED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,12 +265,26 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="darkGray">
         <fgColor indexed="41"/>
       </patternFill>
     </fill>
@@ -282,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -301,7 +318,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right/>
       <top/>
@@ -310,34 +327,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,21 +342,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,13 +375,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -446,23 +432,423 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -471,16 +857,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,135 +1215,154 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" s="27"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="J7" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="J8" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="J9" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="27"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" ht="15.0" customHeight="true"/>
-    <row r="12" ht="15.0" customHeight="true"/>
-    <row r="13" ht="15.0" customHeight="true"/>
-    <row r="14" ht="15.0" customHeight="true"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D15" s="28" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="D15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17">
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18">
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19">
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20">
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,13 +1376,13 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -972,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +1422,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1001,23 +1438,23 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1031,8 +1468,10 @@
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1049,22 +1488,61 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1076,7 +1554,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1563,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1095,58 +1573,58 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="9"/>
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="10"/>
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="11"/>
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="12"/>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
     </row>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AA4D8-7783-43BD-B936-C08BD784BB27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96327F7-1BF0-485A-B2A6-0EC7BC4F24B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>${x}</t>
   </si>
   <si>
     <t/>
@@ -1184,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
@@ -1232,7 +1235,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
@@ -1247,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1298,8 +1301,10 @@
       <c r="M10" s="24"/>
     </row>
     <row r="11" ht="15.0" customHeight="true"/>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A12" s="26" t="n">
+        <v>5.0</v>
+      </c>
       <c r="B12" s="27"/>
     </row>
     <row r="13">
@@ -1339,8 +1344,6 @@
       <c r="J16" s="34"/>
     </row>
     <row r="17">
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -1364,6 +1367,96 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
     </row>
+    <row r="21" ht="15.0" customHeight="true"/>
+    <row r="22" ht="15.0" customHeight="true"/>
+    <row r="23" ht="15.0" customHeight="true"/>
+    <row r="24" ht="15.0" customHeight="true"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="28"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="28"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="28"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="28"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" ht="15.0" customHeight="true"/>
+    <row r="33" ht="15.0" customHeight="true"/>
+    <row r="34" ht="15.0" customHeight="true"/>
+    <row r="35" ht="15.0" customHeight="true"/>
+    <row r="36" ht="15.0" customHeight="true"/>
+    <row r="37" ht="15.0" customHeight="true"/>
+    <row r="38" ht="15.0" customHeight="true"/>
+    <row r="39" ht="15.0" customHeight="true"/>
+    <row r="40" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96327F7-1BF0-485A-B2A6-0EC7BC4F24B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672869A0-A0B1-4139-87A2-2D5624514B03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FUN" sheetId="5" r:id="rId2"/>
-    <sheet name="Settings" sheetId="3" r:id="rId3"/>
-    <sheet name="Legenda" sheetId="4" r:id="rId4"/>
+    <sheet name="ImgPath" sheetId="6" r:id="rId2"/>
+    <sheet name="FUN" sheetId="5" r:id="rId3"/>
+    <sheet name="Settings" sheetId="3" r:id="rId4"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +39,154 @@
   <authors>
     <author>MauroWB</author>
   </authors>
-  <commentList/>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FBB31483-1616-463B-A8B7-85B6FD66F7F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="AA40")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:smeuptest(lastCell="A10" condition = "x&lt;6")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3C034274-8866-48C2-98B2-C89645BA26AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:color(lastCell="G10" fillType="full")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{971F3465-E6CC-4D87-8307-BE7FB5177391}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:color(lastCell="M10" fillType="contour")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{403CA750-08F7-4962-A3DD-3B1D5B9B342B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:template(lastCell="B16")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{FE4AFE60-0C17-42F0-A6EF-00484C73E950}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:style(styleName="B_STYLE" lastCell="E16")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{73EE44F6-0DC1-4C23-9D8F-31B8801211B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:style(lastCell="J20" styleName="m_style")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{14C35D13-A274-41C3-8B4E-41FE89E0F08A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:template(lastCell="I31")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{49D9B310-197B-49BE-AB12-8ED776A5954E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="AA100")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{0C36CB62-1CEE-418B-8A32-5FD624FDEDC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="A7", direction="DOWN", var="obj", items="f01_col01")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -138,34 +281,49 @@
     <t>Scrivere possibilmente ciascuna FUN sulla stessa riga.</t>
   </si>
   <si>
-    <t>F(TIPO; PARAMETRO; OGGETTO)</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>${x}</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Iterazione numero 0</t>
-  </si>
-  <si>
-    <t>Iterazione numero 1</t>
-  </si>
-  <si>
-    <t>Iterazione numero 2</t>
-  </si>
-  <si>
-    <t>Iterazione numero 3</t>
-  </si>
-  <si>
-    <t>Iterazione numero 4</t>
-  </si>
-  <si>
-    <t>Iterazione numero 5</t>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>FUN Sheet</t>
+  </si>
+  <si>
+    <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\fromloocup2.xml</t>
+  </si>
+  <si>
+    <t>F(EXB;B£SER_43B;EMIMAT) 1(;;) 2(;;) INPUT()</t>
+  </si>
+  <si>
+    <t>${sgo_test}</t>
+  </si>
+  <si>
+    <t>Img Path</t>
+  </si>
+  <si>
+    <t>Verifica l'override del metodo getFormattedValueForCell.</t>
+  </si>
+  <si>
+    <t>Il risultato aspettato è il path con il simbolo "$" posto all'inizio e alla fine.</t>
+  </si>
+  <si>
+    <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\richimg.xml</t>
+  </si>
+  <si>
+    <t>${obj}</t>
   </si>
 </sst>
 </file>
@@ -173,7 +331,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,18 +367,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,13 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="FFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893" rgb="70AD47"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" rgb="ED7D31"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,52 +405,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -321,7 +425,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right/>
       <top/>
@@ -330,14 +434,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,10 +449,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,13 +482,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -435,414 +539,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right/>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <right style="thick"/>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick"/>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -866,42 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,276 +852,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="true" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15.0" customHeight="true" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" ht="15.0" customHeight="true"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" ht="15.0" customHeight="true"/>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A12" s="26" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="D15" s="33" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="D16" s="33" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17">
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18">
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-    </row>
-    <row r="19">
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-    </row>
-    <row r="20">
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" ht="15.0" customHeight="true"/>
-    <row r="22" ht="15.0" customHeight="true"/>
-    <row r="23" ht="15.0" customHeight="true"/>
-    <row r="24" ht="15.0" customHeight="true"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="28"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="28"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="28"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="28"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="true"/>
-    <row r="33" ht="15.0" customHeight="true"/>
-    <row r="34" ht="15.0" customHeight="true"/>
-    <row r="35" ht="15.0" customHeight="true"/>
-    <row r="36" ht="15.0" customHeight="true"/>
-    <row r="37" ht="15.0" customHeight="true"/>
-    <row r="38" ht="15.0" customHeight="true"/>
-    <row r="39" ht="15.0" customHeight="true"/>
-    <row r="40" ht="15.0" customHeight="true"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1465,33 +919,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E29C8-83D6-462E-9941-045D45D3E5EC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="50.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59596EFB-D609-43E0-A161-5EF787E3F936}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1642,7 +1170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9676C-3BD1-4753-9B9E-6C45C69AE028}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672869A0-A0B1-4139-87A2-2D5624514B03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867108B-9898-4377-9819-02DB7E5FB5C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,159 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>MauroWB</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FBB31483-1616-463B-A8B7-85B6FD66F7F8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="AA40")
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:smeuptest(lastCell="A10" condition = "x&lt;6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3C034274-8866-48C2-98B2-C89645BA26AF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:color(lastCell="G10" fillType="full")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{971F3465-E6CC-4D87-8307-BE7FB5177391}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:color(lastCell="M10" fillType="contour")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{403CA750-08F7-4962-A3DD-3B1D5B9B342B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:template(lastCell="B16")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{FE4AFE60-0C17-42F0-A6EF-00484C73E950}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:style(styleName="B_STYLE" lastCell="E16")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{73EE44F6-0DC1-4C23-9D8F-31B8801211B4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:style(lastCell="J20" styleName="m_style")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{14C35D13-A274-41C3-8B4E-41FE89E0F08A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:template(lastCell="I31")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>MauroWB</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{49D9B310-197B-49BE-AB12-8ED776A5954E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:area(lastCell="AA100")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{0C36CB62-1CEE-418B-8A32-5FD624FDEDC8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(lastCell="A7", direction="DOWN", var="obj", items="f01_col01")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="176">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -284,9 +133,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>${x}</t>
-  </si>
-  <si>
     <t>F01</t>
   </si>
   <si>
@@ -308,9 +154,6 @@
     <t>F(EXB;B£SER_43B;EMIMAT) 1(;;) 2(;;) INPUT()</t>
   </si>
   <si>
-    <t>${sgo_test}</t>
-  </si>
-  <si>
     <t>Img Path</t>
   </si>
   <si>
@@ -323,15 +166,410 @@
     <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\richimg.xml</t>
   </si>
   <si>
-    <t>${obj}</t>
+    <t>Iterazione numero 0</t>
+  </si>
+  <si>
+    <t>Iterazione numero 1</t>
+  </si>
+  <si>
+    <t>Iterazione numero 2</t>
+  </si>
+  <si>
+    <t>Iterazione numero 3</t>
+  </si>
+  <si>
+    <t>Iterazione numero 4</t>
+  </si>
+  <si>
+    <t>Iterazione numero 5</t>
+  </si>
+  <si>
+    <t>D:\Java\Workspace\ExcelFromXMLObject</t>
+  </si>
+  <si>
+    <t>$SMEUP,IMG,D:\Java\Workspace\ExcelFromXMLObject$</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000000.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000001.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000002.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000003.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000004.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000005.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000006.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000007.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000008.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000009.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000010.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000011.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000012.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000013.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000014.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000015.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000016.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000017.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000018.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000019.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000020.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000021.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000022.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000023.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000024.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000025.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000026.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000027.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000028.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000029.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000030.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000031.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000032.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000033.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000034.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000035.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000036.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000037.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000038.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000039.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000040.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000041.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000042.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000043.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000044.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000045.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000046.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000047.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000048.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000049.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000050.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000051.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000052.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000053.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000054.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000055.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000056.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000057.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000070.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000071.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000072.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000074.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000075.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000076.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000082.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000085.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000086.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000088.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000089.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000090.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000091.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000092.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000093.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000094.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000095.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000096.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000097.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000098.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000099.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000101.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000102.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000103.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000111.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000112.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000113.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000114.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000115.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000116.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000117.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000118.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000119.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000201.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000202.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000203.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000204.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000205.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000206.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000207.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000208.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000209.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000210.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000211.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000212.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000213.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000214.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000215.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000216.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000217.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000218.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000219.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000220.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000227.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000228.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000229.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000230.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000231.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000232.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000233.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000234.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000235.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000236.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000237.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000238.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000240.png</t>
+  </si>
+  <si>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000241.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,12 +583,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -367,8 +599,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +647,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -539,34 +801,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -860,18 +1214,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -879,84 +1236,1340 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="D15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -965,17 +2578,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="50.85546875" collapsed="false"/>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -993,33 +2606,33 @@
         <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1038,8 +2651,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -1180,7 +2793,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">

--- a/target/classes/custom_commands/excel/command_output.xlsx
+++ b/target/classes/custom_commands/excel/command_output.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\custom_commands\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867108B-9898-4377-9819-02DB7E5FB5C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F9B8D-54DC-4030-B12B-9D603E2555CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="179">
   <si>
     <t>Custom command demo</t>
   </si>
@@ -133,6 +151,9 @@
     <t>a</t>
   </si>
   <si>
+    <t>${x}</t>
+  </si>
+  <si>
     <t>F01</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t>F(EXB;B£SER_43B;EMIMAT) 1(;;) 2(;;) INPUT()</t>
   </si>
   <si>
+    <t>${sgo_test}</t>
+  </si>
+  <si>
     <t>Img Path</t>
   </si>
   <si>
@@ -166,6 +190,12 @@
     <t>D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\xml\richimg.xml</t>
   </si>
   <si>
+    <t>${obj}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Iterazione numero 0</t>
   </si>
   <si>
@@ -184,13 +214,10 @@
     <t>Iterazione numero 5</t>
   </si>
   <si>
-    <t>D:\Java\Workspace\ExcelFromXMLObject</t>
+    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000000.png</t>
   </si>
   <si>
     <t>$SMEUP,IMG,D:\Java\Workspace\ExcelFromXMLObject$</t>
-  </si>
-  <si>
-    <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000000.png</t>
   </si>
   <si>
     <t>D:\Stage\Loocup\LOOCUP_IMG\VO\COD_VER\000001.png</t>
@@ -569,7 +596,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +611,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -600,17 +634,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,13 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893" rgb="70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" rgb="ED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +682,32 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkTrellis">
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
-        <bgColor indexed="64"/>
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
@@ -663,12 +716,17 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="mediumGray">
         <fgColor indexed="53"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -687,7 +745,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right/>
       <top/>
@@ -696,14 +754,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,10 +769,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,13 +802,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.34998626667073579" rgb="000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -801,85 +859,356 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+    <border/>
+    <border>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
         <color indexed="8"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top style="thick">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thick">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
       <bottom style="thick">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thick">
         <color indexed="8"/>
       </right>
-      <top/>
       <bottom style="thick">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -892,35 +1221,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,7 +1558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1214,31 +1567,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="true" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15.0" customHeight="true" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="3" ht="15.0" customHeight="true"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="D4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
@@ -1251,9 +1605,9 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
@@ -1262,44 +1616,52 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="J6" s="24"/>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="J7" s="24"/>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="J8" s="24"/>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="J9" s="24"/>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1310,22 +1672,22 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>5</v>
+    <row r="11" ht="15.0" customHeight="true"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A12" s="26" t="n">
+        <v>5.0</v>
       </c>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="D15" s="33" t="s">
@@ -1339,7 +1701,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="D16" s="33" t="s">
@@ -1353,35 +1715,35 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.0" customHeight="true"/>
+    <row r="22" ht="15.0" customHeight="true"/>
+    <row r="23" ht="15.0" customHeight="true"/>
+    <row r="24" ht="15.0" customHeight="true"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1392,27 +1754,62 @@
       <c r="H25" s="25"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="28"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="28"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="28"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="28"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="31"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -1423,1153 +1820,1155 @@
       <c r="H31" s="30"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.0" customHeight="true"/>
+    <row r="33" ht="15.0" customHeight="true"/>
+    <row r="34" ht="15.0" customHeight="true"/>
+    <row r="35" ht="15.0" customHeight="true"/>
+    <row r="36" ht="15.0" customHeight="true"/>
+    <row r="37" ht="15.0" customHeight="true"/>
+    <row r="38" ht="15.0" customHeight="true"/>
+    <row r="39" ht="15.0" customHeight="true"/>
+    <row r="40" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBC63F-0D85-4A6D-9C85-B3CF8EF791BD}">
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
       <c r="A1" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A5" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="6" ht="15.0" customHeight="true"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="10" ht="15.0" customHeight="true">
+      <c r="A10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="20" ht="15.0" customHeight="true">
+      <c r="A20" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="A21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="23" ht="15.0" customHeight="true">
+      <c r="A23" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="24" ht="15.0" customHeight="true">
+      <c r="A24" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="A25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="26" ht="15.0" customHeight="true">
+      <c r="A26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="27" ht="15.0" customHeight="true">
+      <c r="A27" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="29" ht="15.0" customHeight="true">
+      <c r="A29" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="30" ht="15.0" customHeight="true">
+      <c r="A30" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="A31" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="32" ht="15.0" customHeight="true">
+      <c r="A32" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="33" ht="15.0" customHeight="true">
+      <c r="A33" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="34" ht="15.0" customHeight="true">
+      <c r="A34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="35" ht="15.0" customHeight="true">
+      <c r="A35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="36" ht="15.0" customHeight="true">
+      <c r="A36" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="37" ht="15.0" customHeight="true">
+      <c r="A37" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="38" ht="15.0" customHeight="true">
+      <c r="A38" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="39" ht="15.0" customHeight="true">
+      <c r="A39" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="A40" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="41" ht="15.0" customHeight="true">
+      <c r="A41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="42" ht="15.0" customHeight="true">
+      <c r="A42" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="43" ht="15.0" customHeight="true">
+      <c r="A43" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="44" ht="15.0" customHeight="true">
+      <c r="A44" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="45" ht="15.0" customHeight="true">
+      <c r="A45" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="46" ht="15.0" customHeight="true">
+      <c r="A46" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="47" ht="15.0" customHeight="true">
+      <c r="A47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="48" ht="15.0" customHeight="true">
+      <c r="A48" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="49" ht="15.0" customHeight="true">
+      <c r="A49" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="50" ht="15.0" customHeight="true">
+      <c r="A50" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="51" ht="15.0" customHeight="true">
+      <c r="A51" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="52" ht="15.0" customHeight="true">
+      <c r="A52" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="53" ht="15.0" customHeight="true">
+      <c r="A53" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="54" ht="15.0" customHeight="true">
+      <c r="A54" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="55" ht="15.0" customHeight="true">
+      <c r="A55" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="56" ht="15.0" customHeight="true">
+      <c r="A56" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="57" ht="15.0" customHeight="true">
+      <c r="A57" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="58" ht="15.0" customHeight="true">
+      <c r="A58" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="59" ht="15.0" customHeight="true">
+      <c r="A59" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="60" ht="15.0" customHeight="true">
+      <c r="A60" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="61" ht="15.0" customHeight="true">
+      <c r="A61" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="62" ht="15.0" customHeight="true">
+      <c r="A62" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="63" ht="15.0" customHeight="true">
+      <c r="A63" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="64" ht="15.0" customHeight="true">
+      <c r="A64" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="65" ht="15.0" customHeight="true">
+      <c r="A65" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="66" ht="15.0" customHeight="true">
+      <c r="A66" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="67" ht="15.0" customHeight="true">
+      <c r="A67" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="68" ht="15.0" customHeight="true">
+      <c r="A68" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="69" ht="15.0" customHeight="true">
+      <c r="A69" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="70" ht="15.0" customHeight="true">
+      <c r="A70" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="71" ht="15.0" customHeight="true">
+      <c r="A71" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="72" ht="15.0" customHeight="true">
+      <c r="A72" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="73" ht="15.0" customHeight="true">
+      <c r="A73" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="74" ht="15.0" customHeight="true">
+      <c r="A74" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="75" ht="15.0" customHeight="true">
+      <c r="A75" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s" s="0">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="76" ht="15.0" customHeight="true">
+      <c r="A76" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="77" ht="15.0" customHeight="true">
+      <c r="A77" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="78" ht="15.0" customHeight="true">
+      <c r="A78" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s" s="0">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="79" ht="15.0" customHeight="true">
+      <c r="A79" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="80" ht="15.0" customHeight="true">
+      <c r="A80" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s" s="0">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="81" ht="15.0" customHeight="true">
+      <c r="A81" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="82" ht="15.0" customHeight="true">
+      <c r="A82" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s" s="0">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="83" ht="15.0" customHeight="true">
+      <c r="A83" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s" s="0">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="84" ht="15.0" customHeight="true">
+      <c r="A84" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s" s="0">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="85" ht="15.0" customHeight="true">
+      <c r="A85" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s" s="0">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="86" ht="15.0" customHeight="true">
+      <c r="A86" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="87" ht="15.0" customHeight="true">
+      <c r="A87" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="88" ht="15.0" customHeight="true">
+      <c r="A88" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s" s="0">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="89" ht="15.0" customHeight="true">
+      <c r="A89" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="90" ht="15.0" customHeight="true">
+      <c r="A90" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="91" ht="15.0" customHeight="true">
+      <c r="A91" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="92" ht="15.0" customHeight="true">
+      <c r="A92" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="93" ht="15.0" customHeight="true">
+      <c r="A93" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="94" ht="15.0" customHeight="true">
+      <c r="A94" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="95" ht="15.0" customHeight="true">
+      <c r="A95" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B95" t="s" s="0">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="96" ht="15.0" customHeight="true">
+      <c r="A96" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="97" ht="15.0" customHeight="true">
+      <c r="A97" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="98" ht="15.0" customHeight="true">
+      <c r="A98" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s" s="0">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="99" ht="15.0" customHeight="true">
+      <c r="A99" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s" s="0">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="100" ht="15.0" customHeight="true">
+      <c r="A100" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s" s="0">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="101" ht="15.0" customHeight="true">
+      <c r="A101" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s" s="0">
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="102" ht="15.0" customHeight="true">
+      <c r="A102" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s" s="0">
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="103" ht="15.0" customHeight="true">
+      <c r="A103" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="104" ht="15.0" customHeight="true">
+      <c r="A104" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s" s="0">
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="105" ht="15.0" customHeight="true">
+      <c r="A105" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="106" ht="15.0" customHeight="true">
+      <c r="A106" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B106" t="s" s="0">
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>50</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="107" ht="15.0" customHeight="true">
+      <c r="A107" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B107" t="s" s="0">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>50</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="108" ht="15.0" customHeight="true">
+      <c r="A108" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s" s="0">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="109" ht="15.0" customHeight="true">
+      <c r="A109" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B109" t="s" s="0">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="110" ht="15.0" customHeight="true">
+      <c r="A110" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B110" t="s" s="0">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="111" ht="15.0" customHeight="true">
+      <c r="A111" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s" s="0">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="112" ht="15.0" customHeight="true">
+      <c r="A112" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B112" t="s" s="0">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="113" ht="15.0" customHeight="true">
+      <c r="A113" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B113" t="s" s="0">
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="114" ht="15.0" customHeight="true">
+      <c r="A114" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B114" t="s" s="0">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="115" ht="15.0" customHeight="true">
+      <c r="A115" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B115" t="s" s="0">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="116" ht="15.0" customHeight="true">
+      <c r="A116" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B116" t="s" s="0">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="117" ht="15.0" customHeight="true">
+      <c r="A117" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B117" t="s" s="0">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="118" ht="15.0" customHeight="true">
+      <c r="A118" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s" s="0">
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="119" ht="15.0" customHeight="true">
+      <c r="A119" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s" s="0">
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="120" ht="15.0" customHeight="true">
+      <c r="A120" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s" s="0">
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="121" ht="15.0" customHeight="true">
+      <c r="A121" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s" s="0">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="122" ht="15.0" customHeight="true">
+      <c r="A122" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s" s="0">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="123" ht="15.0" customHeight="true">
+      <c r="A123" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s" s="0">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="124" ht="15.0" customHeight="true">
+      <c r="A124" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s" s="0">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="125" ht="15.0" customHeight="true">
+      <c r="A125" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s" s="0">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="126" ht="15.0" customHeight="true">
+      <c r="A126" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s" s="0">
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="127" ht="15.0" customHeight="true">
+      <c r="A127" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B127" t="s" s="0">
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="128" ht="15.0" customHeight="true">
+      <c r="A128" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B128" t="s" s="0">
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.0" customHeight="true">
+      <c r="A129" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" ht="15.0" customHeight="true">
+      <c r="A130" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" ht="15.0" customHeight="true">
+      <c r="A131" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" ht="15.0" customHeight="true"/>
+    <row r="133" ht="15.0" customHeight="true"/>
+    <row r="134" ht="15.0" customHeight="true"/>
+    <row r="135" ht="15.0" customHeight="true"/>
+    <row r="136" ht="15.0" customHeight="true"/>
+    <row r="137" ht="15.0" customHeight="true"/>
+    <row r="138" ht="15.0" customHeight="true"/>
+    <row r="139" ht="15.0" customHeight="true"/>
+    <row r="140" ht="15.0" customHeight="true"/>
+    <row r="141" ht="15.0" customHeight="true"/>
+    <row r="142" ht="15.0" customHeight="true"/>
+    <row r="143" ht="15.0" customHeight="true"/>
+    <row r="144" ht="15.0" customHeight="true"/>
+    <row r="145" ht="15.0" customHeight="true"/>
+    <row r="146" ht="15.0" customHeight="true"/>
+    <row r="147" ht="15.0" customHeight="true"/>
+    <row r="148" ht="15.0" customHeight="true"/>
+    <row r="149" ht="15.0" customHeight="true"/>
+    <row r="150" ht="15.0" customHeight="true"/>
+    <row r="151" ht="15.0" customHeight="true"/>
+    <row r="152" ht="15.0" customHeight="true"/>
+    <row r="153" ht="15.0" customHeight="true"/>
+    <row r="154" ht="15.0" customHeight="true"/>
+    <row r="155" ht="15.0" customHeight="true"/>
+    <row r="156" ht="15.0" customHeight="true"/>
+    <row r="157" ht="15.0" customHeight="true"/>
+    <row r="158" ht="15.0" customHeight="true"/>
+    <row r="159" ht="15.0" customHeight="true"/>
+    <row r="160" ht="15.0" customHeight="true"/>
+    <row r="161" ht="15.0" customHeight="true"/>
+    <row r="162" ht="15.0" customHeight="true"/>
+    <row r="163" ht="15.0" customHeight="true"/>
+    <row r="164" ht="15.0" customHeight="true"/>
+    <row r="165" ht="15.0" customHeight="true"/>
+    <row r="166" ht="15.0" customHeight="true"/>
+    <row r="167" ht="15.0" customHeight="true"/>
+    <row r="168" ht="15.0" customHeight="true"/>
+    <row r="169" ht="15.0" customHeight="true"/>
+    <row r="170" ht="15.0" customHeight="true"/>
+    <row r="171" ht="15.0" customHeight="true"/>
+    <row r="172" ht="15.0" customHeight="true"/>
+    <row r="173" ht="15.0" customHeight="true"/>
+    <row r="174" ht="15.0" customHeight="true"/>
+    <row r="175" ht="15.0" customHeight="true"/>
+    <row r="176" ht="15.0" customHeight="true"/>
+    <row r="177" ht="15.0" customHeight="true"/>
+    <row r="178" ht="15.0" customHeight="true"/>
+    <row r="179" ht="15.0" customHeight="true"/>
+    <row r="180" ht="15.0" customHeight="true"/>
+    <row r="181" ht="15.0" customHeight="true"/>
+    <row r="182" ht="15.0" customHeight="true"/>
+    <row r="183" ht="15.0" customHeight="true"/>
+    <row r="184" ht="15.0" customHeight="true"/>
+    <row r="185" ht="15.0" customHeight="true"/>
+    <row r="186" ht="15.0" customHeight="true"/>
+    <row r="187" ht="15.0" customHeight="true"/>
+    <row r="188" ht="15.0" customHeight="true"/>
+    <row r="189" ht="15.0" customHeight="true"/>
+    <row r="190" ht="15.0" customHeight="true"/>
+    <row r="191" ht="15.0" customHeight="true"/>
+    <row r="192" ht="15.0" customHeight="true"/>
+    <row r="193" ht="15.0" customHeight="true"/>
+    <row r="194" ht="15.0" customHeight="true"/>
+    <row r="195" ht="15.0" customHeight="true"/>
+    <row r="196" ht="15.0" customHeight="true"/>
+    <row r="197" ht="15.0" customHeight="true"/>
+    <row r="198" ht="15.0" customHeight="true"/>
+    <row r="199" ht="15.0" customHeight="true"/>
+    <row r="200" ht="15.0" customHeight="true"/>
+    <row r="201" ht="15.0" customHeight="true"/>
+    <row r="202" ht="15.0" customHeight="true"/>
+    <row r="203" ht="15.0" customHeight="true"/>
+    <row r="204" ht="15.0" customHeight="true"/>
+    <row r="205" ht="15.0" customHeight="true"/>
+    <row r="206" ht="15.0" customHeight="true"/>
+    <row r="207" ht="15.0" customHeight="true"/>
+    <row r="208" ht="15.0" customHeight="true"/>
+    <row r="209" ht="15.0" customHeight="true"/>
+    <row r="210" ht="15.0" customHeight="true"/>
+    <row r="211" ht="15.0" customHeight="true"/>
+    <row r="212" ht="15.0" customHeight="true"/>
+    <row r="213" ht="15.0" customHeight="true"/>
+    <row r="214" ht="15.0" customHeight="true"/>
+    <row r="215" ht="15.0" customHeight="true"/>
+    <row r="216" ht="15.0" customHeight="true"/>
+    <row r="217" ht="15.0" customHeight="true"/>
+    <row r="218" ht="15.0" customHeight="true"/>
+    <row r="219" ht="15.0" customHeight="true"/>
+    <row r="220" ht="15.0" customHeight="true"/>
+    <row r="221" ht="15.0" customHeight="true"/>
+    <row r="222" ht="15.0" customHeight="true"/>
+    <row r="223" ht="15.0" customHeight="true"/>
+    <row r="224" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2583,12 +2982,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="50.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2606,33 +3005,33 @@
         <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2651,8 +3050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -2793,7 +3192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
